--- a/plan/excel/activity_活动表.xlsx
+++ b/plan/excel/activity_活动表.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="ActivityConf" sheetId="4" r:id="rId1"/>
+    <sheet name="Activity" sheetId="4" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ActivityConf!$B$1:$D$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Activity!$B$1:$D$4</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
